--- a/analysis/participant_extractedmetrics/participant240_.xlsx
+++ b/analysis/participant_extractedmetrics/participant240_.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="81">
   <si>
     <t/>
   </si>
@@ -174,6 +174,9 @@
     <t>pre gem</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>arg</t>
   </si>
   <si>
@@ -259,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,6 +273,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,12 +294,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,7 +2727,1041 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>131.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="4">
+        <v>452.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>130.0</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2218.77</v>
+      </c>
+      <c r="F26" s="4">
+        <v>500.51</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2786.27</v>
+      </c>
+      <c r="H26" s="4">
+        <v>40190.18</v>
+      </c>
+      <c r="I26" s="4">
+        <v>20554.43</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6206.32</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2869.58</v>
+      </c>
+      <c r="L26" s="4">
+        <v>700.51</v>
+      </c>
+      <c r="M26" s="4">
+        <v>367.06</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="4">
+        <v>125991.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>967.66</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>15031.99</v>
+      </c>
+      <c r="R26" s="4">
+        <v>2836.5</v>
+      </c>
+      <c r="S26" s="4">
+        <v>4420.95</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2452.62</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2652.82</v>
+      </c>
+      <c r="V26" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>717.39</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1751.92</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1100.93</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>300.3</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>150.16</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>54124.68</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>1151.18</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>467.2</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>200.16</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>567.26</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>2786.27</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>1902.01</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>2485.74</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H27" s="4">
+        <v>13.14</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6.72</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2.03</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="4">
+        <v>41.19</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>201.71</v>
+      </c>
+      <c r="F28" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="G28" s="4">
+        <v>928.76</v>
+      </c>
+      <c r="H28" s="4">
+        <v>306.8</v>
+      </c>
+      <c r="I28" s="4">
+        <v>263.52</v>
+      </c>
+      <c r="J28" s="4">
+        <v>620.63</v>
+      </c>
+      <c r="K28" s="4">
+        <v>318.84</v>
+      </c>
+      <c r="L28" s="4">
+        <v>233.5</v>
+      </c>
+      <c r="M28" s="4">
+        <v>183.53</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="4">
+        <v>278.74</v>
+      </c>
+      <c r="P28" s="4">
+        <v>193.53</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>259.17</v>
+      </c>
+      <c r="R28" s="4">
+        <v>315.17</v>
+      </c>
+      <c r="S28" s="4">
+        <v>232.68</v>
+      </c>
+      <c r="T28" s="4">
+        <v>350.37</v>
+      </c>
+      <c r="U28" s="4">
+        <v>530.56</v>
+      </c>
+      <c r="V28" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>179.35</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>350.38</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>220.19</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>150.16</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>416.34</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>383.73</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>233.6</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>200.16</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>283.63</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>928.76</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>380.4</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>310.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>250.24</v>
+      </c>
+      <c r="F29" s="4">
+        <v>333.7</v>
+      </c>
+      <c r="G29" s="4">
+        <v>266.93</v>
+      </c>
+      <c r="H29" s="4">
+        <v>200.2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>200.2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>233.55</v>
+      </c>
+      <c r="K29" s="4">
+        <v>817.54</v>
+      </c>
+      <c r="L29" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="M29" s="4">
+        <v>200.18</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="4">
+        <v>116.78</v>
+      </c>
+      <c r="P29" s="4">
+        <v>250.24</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>200.18</v>
+      </c>
+      <c r="R29" s="4">
+        <v>266.93</v>
+      </c>
+      <c r="S29" s="4">
+        <v>200.18</v>
+      </c>
+      <c r="T29" s="4">
+        <v>817.54</v>
+      </c>
+      <c r="U29" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="V29" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>250.24</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>300.31</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>150.16</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>183.51</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>200.18</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>200.16</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>250.24</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>266.93</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>817.54</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>400.44</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2730,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2739,58 +3790,58 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>19</v>
@@ -2799,22 +3850,22 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>36</v>
@@ -2840,6 +3891,12 @@
       <c r="AL1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -2954,6 +4011,12 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -3070,6 +4133,12 @@
       <c r="AL3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -3186,6 +4255,12 @@
       <c r="AL4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -3302,6 +4377,12 @@
       <c r="AL5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -3418,6 +4499,12 @@
       <c r="AL6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -3534,6 +4621,12 @@
       <c r="AL7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -3650,6 +4743,12 @@
       <c r="AL8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -3661,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -3670,58 +4769,58 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>19</v>
@@ -3730,22 +4829,22 @@
         <v>21</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>36</v>
@@ -3771,6 +4870,12 @@
       <c r="AL13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -3885,6 +4990,12 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -4001,6 +5112,12 @@
       <c r="AL15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -4117,6 +5234,12 @@
       <c r="AL16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -4233,6 +5356,12 @@
       <c r="AL17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -4349,6 +5478,12 @@
       <c r="AL18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -4465,6 +5600,12 @@
       <c r="AL19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -4581,8 +5722,950 @@
       <c r="AL20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4">
+        <v>163.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>84.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="4">
+        <v>360.0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>131.0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>144.0</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
+        <v>57244.98</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2678.21</v>
+      </c>
+      <c r="F27" s="4">
+        <v>33011.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2327.41</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14907.42</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17418.81</v>
+      </c>
+      <c r="J27" s="4">
+        <v>9860.23</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5288.98</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2110.96</v>
+      </c>
+      <c r="M27" s="4">
+        <v>467.15</v>
+      </c>
+      <c r="N27" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="4">
+        <v>10027.81</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="4">
+        <v>115077.5</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="U27" s="4">
+        <v>49144.31</v>
+      </c>
+      <c r="V27" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="W27" s="4">
+        <v>634.0</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>1100.94</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>43899.28</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>116.76</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>6757.82</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>7057.46</v>
+      </c>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>18.71</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F28" s="4">
+        <v>10.79</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5.69</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="4">
+        <v>37.67</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="U28" s="4">
+        <v>16.07</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>14.35</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>351.2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>446.37</v>
+      </c>
+      <c r="F29" s="4">
+        <v>392.99</v>
+      </c>
+      <c r="G29" s="4">
+        <v>387.9</v>
+      </c>
+      <c r="H29" s="4">
+        <v>532.41</v>
+      </c>
+      <c r="I29" s="4">
+        <v>544.34</v>
+      </c>
+      <c r="J29" s="4">
+        <v>518.96</v>
+      </c>
+      <c r="K29" s="4">
+        <v>311.12</v>
+      </c>
+      <c r="L29" s="4">
+        <v>422.19</v>
+      </c>
+      <c r="M29" s="4">
+        <v>155.72</v>
+      </c>
+      <c r="N29" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="4">
+        <v>501.39</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="4">
+        <v>319.66</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="U29" s="4">
+        <v>375.15</v>
+      </c>
+      <c r="V29" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="W29" s="4">
+        <v>317.0</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>275.24</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>304.86</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>116.76</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>614.35</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>588.12</v>
+      </c>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4">
+        <v>183.88</v>
+      </c>
+      <c r="E30" s="4">
+        <v>567.25</v>
+      </c>
+      <c r="F30" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="G30" s="4">
+        <v>225.24</v>
+      </c>
+      <c r="H30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="I30" s="4">
+        <v>200.15</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100.14</v>
+      </c>
+      <c r="K30" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="L30" s="4">
+        <v>926.48</v>
+      </c>
+      <c r="M30" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="N30" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="4">
+        <v>567.25</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="U30" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="V30" s="4">
+        <v>500.24</v>
+      </c>
+      <c r="W30" s="4">
+        <v>417.12</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>66.75</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>166.81</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>116.76</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>116.74</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>567.25</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>617.32</v>
+      </c>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4602,40 +6685,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>36</v>
@@ -4995,56 +7078,304 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>257.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>365.0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13580.45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>78274.68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>19019.04</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16140.64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19019.04</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3686.74</v>
+      </c>
+      <c r="H15" s="1">
+        <v>39901.39</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7824.8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>19803.06</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9585.95</v>
+      </c>
+      <c r="L15" s="1">
+        <v>111690.9</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1468.02</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1117.65</v>
+      </c>
+      <c r="O15" s="1">
+        <v>166.87</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25.53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>51.82</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>36.43</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.05</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>0</v>
@@ -5052,353 +7383,733 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>522.33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>304.57</v>
+      </c>
+      <c r="D17" s="1">
+        <v>463.88</v>
+      </c>
+      <c r="E17" s="1">
+        <v>366.83</v>
+      </c>
+      <c r="F17" s="1">
+        <v>463.88</v>
+      </c>
+      <c r="G17" s="1">
+        <v>737.35</v>
+      </c>
+      <c r="H17" s="1">
+        <v>415.64</v>
+      </c>
+      <c r="I17" s="1">
+        <v>652.07</v>
+      </c>
+      <c r="J17" s="1">
+        <v>314.33</v>
+      </c>
+      <c r="K17" s="1">
+        <v>309.22</v>
+      </c>
+      <c r="L17" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>558.82</v>
+      </c>
+      <c r="O17" s="1">
+        <v>166.87</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
-        <v>14.0</v>
+        <v>133.5</v>
       </c>
       <c r="C18" s="1">
-        <v>66.0</v>
+        <v>243.07</v>
       </c>
       <c r="D18" s="1">
-        <v>21.0</v>
+        <v>400.42</v>
       </c>
       <c r="E18" s="1">
-        <v>25.0</v>
+        <v>400.42</v>
       </c>
       <c r="F18" s="1">
-        <v>21.0</v>
+        <v>400.42</v>
       </c>
       <c r="G18" s="1">
-        <v>2.0</v>
+        <v>433.81</v>
       </c>
       <c r="H18" s="1">
-        <v>7.0</v>
+        <v>150.22</v>
       </c>
       <c r="I18" s="1">
-        <v>8.0</v>
+        <v>133.5</v>
       </c>
       <c r="J18" s="1">
-        <v>36.0</v>
+        <v>550.62</v>
       </c>
       <c r="K18" s="1">
-        <v>18.0</v>
+        <v>333.66</v>
       </c>
       <c r="L18" s="1">
-        <v>77.0</v>
+        <v>483.8</v>
       </c>
       <c r="M18" s="1">
-        <v>3.0</v>
+        <v>400.42</v>
       </c>
       <c r="N18" s="1">
-        <v>1.0</v>
+        <v>266.93</v>
       </c>
       <c r="O18" s="1">
-        <v>0.0</v>
+        <v>166.87</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>257.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>96.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>365.0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1">
-        <v>13580.45</v>
-      </c>
-      <c r="C20" s="1">
-        <v>78274.68</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19019.04</v>
-      </c>
-      <c r="E20" s="1">
-        <v>16140.64</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19019.04</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3686.74</v>
-      </c>
-      <c r="H20" s="1">
-        <v>39901.39</v>
-      </c>
-      <c r="I20" s="1">
-        <v>7824.8</v>
-      </c>
-      <c r="J20" s="1">
-        <v>19803.06</v>
-      </c>
-      <c r="K20" s="1">
-        <v>9585.95</v>
-      </c>
-      <c r="L20" s="1">
-        <v>111690.9</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1468.02</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1117.65</v>
-      </c>
-      <c r="O20" s="1">
-        <v>166.87</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4.43</v>
-      </c>
-      <c r="C21" s="1">
-        <v>25.53</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>51.82</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2.55</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.13</v>
-      </c>
-      <c r="L21" s="1">
-        <v>36.43</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1">
-        <v>522.33</v>
-      </c>
-      <c r="C22" s="1">
-        <v>304.57</v>
-      </c>
-      <c r="D22" s="1">
-        <v>463.88</v>
-      </c>
-      <c r="E22" s="1">
-        <v>366.83</v>
-      </c>
-      <c r="F22" s="1">
-        <v>463.88</v>
-      </c>
-      <c r="G22" s="1">
-        <v>737.35</v>
-      </c>
-      <c r="H22" s="1">
-        <v>415.64</v>
-      </c>
-      <c r="I22" s="1">
-        <v>652.07</v>
-      </c>
-      <c r="J22" s="1">
-        <v>314.33</v>
-      </c>
-      <c r="K22" s="1">
-        <v>309.22</v>
-      </c>
-      <c r="L22" s="1">
-        <v>306.0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>558.82</v>
-      </c>
-      <c r="O22" s="1">
-        <v>166.87</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>96.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1301.38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>11328.35</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7674.86</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9626.98</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7674.86</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4921.94</v>
+      </c>
+      <c r="H25" s="4">
+        <v>39901.39</v>
+      </c>
+      <c r="I25" s="4">
+        <v>817.55</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2452.52</v>
+      </c>
+      <c r="K25" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5852.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>4288.11</v>
+      </c>
+      <c r="N25" s="4">
+        <v>367.06</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14.71</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9.97</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9.97</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.39</v>
+      </c>
+      <c r="H26" s="4">
+        <v>51.82</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5.57</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4">
+        <v>260.28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>365.43</v>
+      </c>
+      <c r="D27" s="4">
+        <v>451.46</v>
+      </c>
+      <c r="E27" s="4">
+        <v>437.59</v>
+      </c>
+      <c r="F27" s="4">
+        <v>451.46</v>
+      </c>
+      <c r="G27" s="4">
+        <v>820.32</v>
+      </c>
+      <c r="H27" s="4">
+        <v>415.64</v>
+      </c>
+      <c r="I27" s="4">
+        <v>272.52</v>
+      </c>
+      <c r="J27" s="4">
+        <v>613.13</v>
+      </c>
+      <c r="K27" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="L27" s="4">
+        <v>234.08</v>
+      </c>
+      <c r="M27" s="4">
+        <v>714.69</v>
+      </c>
+      <c r="N27" s="4">
+        <v>367.06</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1">
-        <v>133.5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>243.07</v>
-      </c>
-      <c r="D23" s="1">
-        <v>400.42</v>
-      </c>
-      <c r="E23" s="1">
-        <v>400.42</v>
-      </c>
-      <c r="F23" s="1">
-        <v>400.42</v>
-      </c>
-      <c r="G23" s="1">
-        <v>433.81</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="B28" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>199.92</v>
+      </c>
+      <c r="D28" s="4">
+        <v>199.92</v>
+      </c>
+      <c r="E28" s="4">
+        <v>383.68</v>
+      </c>
+      <c r="F28" s="4">
+        <v>199.92</v>
+      </c>
+      <c r="G28" s="4">
+        <v>199.92</v>
+      </c>
+      <c r="H28" s="4">
         <v>150.22</v>
       </c>
-      <c r="I23" s="1">
-        <v>133.5</v>
-      </c>
-      <c r="J23" s="1">
-        <v>550.62</v>
-      </c>
-      <c r="K23" s="1">
-        <v>333.66</v>
-      </c>
-      <c r="L23" s="1">
-        <v>483.8</v>
-      </c>
-      <c r="M23" s="1">
-        <v>400.42</v>
-      </c>
-      <c r="N23" s="1">
-        <v>266.93</v>
-      </c>
-      <c r="O23" s="1">
-        <v>166.87</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I28" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="J28" s="4">
+        <v>367.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>150.12</v>
+      </c>
+      <c r="L28" s="4">
+        <v>286.17</v>
+      </c>
+      <c r="M28" s="4">
+        <v>158.52</v>
+      </c>
+      <c r="N28" s="4">
+        <v>367.06</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>